--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4013133.952368137</v>
+        <v>4010883.133982242</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>133.35833737073</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>195.9669314486902</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>123.4514883688809</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>76.77496962571264</v>
+        <v>168.8841199149501</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>46.80807769362132</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>13.808901714272</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>219.1570781143516</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>358.7486215059546</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.7268375758688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>216.6993815150876</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.5769297729267</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4415385849322</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>203.4068132192022</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492308</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492315</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>31.80057351588427</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2135,7 +2135,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560543</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492326</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492326</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>34.70358683202907</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,7 +2530,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>45.41839567467367</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,13 +2767,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>156.8797246418406</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.3848965658451</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>203.4068132192023</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3193,19 +3193,19 @@
         <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>68.60876728915711</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
-        <v>17.86119194381546</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881778</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,22 +3424,22 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C37" t="n">
-        <v>78.39701158502561</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177325</v>
+        <v>117.9335065897436</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S37" t="n">
         <v>161.3726923026053</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292724</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,19 +3661,19 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697912</v>
+        <v>115.294061325451</v>
       </c>
       <c r="D40" t="n">
-        <v>59.7656635046102</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S40" t="n">
         <v>161.3726923026053</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,7 +3791,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>114.0730484858511</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.60876728915711</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121069</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S43" t="n">
         <v>161.3726923026053</v>
@@ -4135,10 +4135,10 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C46" t="n">
-        <v>78.39701158502578</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2191399893757</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>118.0376296177325</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>70.12424455218974</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S46" t="n">
         <v>161.3726923026053</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1175.00952757579</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>806.0470106353782</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="D2" t="n">
-        <v>806.0470106353782</v>
+        <v>940.7524019189439</v>
       </c>
       <c r="E2" t="n">
         <v>806.0470106353782</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2499.202695615505</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2245.440910253596</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1914.378022910026</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1561.609367639912</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1561.609367639912</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.609367639912</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>325.5314024181545</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>178.6414549202441</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1297.230130518035</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="C5" t="n">
-        <v>928.267613577623</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="D5" t="n">
-        <v>928.267613577623</v>
+        <v>944.4614752479206</v>
       </c>
       <c r="E5" t="n">
-        <v>542.4793609793787</v>
+        <v>558.6732226496763</v>
       </c>
       <c r="F5" t="n">
-        <v>131.4934561897712</v>
+        <v>551.7277219004728</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733122</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4604,13 +4604,13 @@
         <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1683.829970582156</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1683.829970582156</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,10 +4647,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4662,25 +4662,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940988</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117057</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>283.2093037137953</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4741,34 +4741,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064346</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2025.937460860856</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>1694.874573517285</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>1342.105918247171</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,46 +5021,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622689</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294613</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353395</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3831.983903964022</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,7 +5072,7 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5130,16 +5130,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978494</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978494</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978494</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978494</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978494</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>231.3605683725683</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927022</v>
@@ -5215,34 +5215,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201818</v>
+        <v>619.8559841413795</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221645</v>
+        <v>619.8559841413795</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>399.0634049978494</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1339.447785386688</v>
+        <v>1732.058578925876</v>
       </c>
       <c r="M14" t="n">
-        <v>2317.998088216516</v>
+        <v>2265.590483597801</v>
       </c>
       <c r="N14" t="n">
-        <v>3297.750360443163</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O14" t="n">
-        <v>3800.7228313225</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5309,19 +5309,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839445</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5452,7 +5452,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104703</v>
@@ -5470,7 +5470,7 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W16" t="n">
         <v>619.8559841413794</v>
@@ -5504,7 +5504,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5513,28 +5513,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>806.1613418786392</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1670.680157531994</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2649.230460361822</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5598,46 +5598,46 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>558.6274977408369</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>389.6913148129299</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305367</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,7 +5689,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
         <v>1956.343466104703</v>
@@ -5698,25 +5698,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384227</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783401</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413794</v>
+        <v>811.5418683145531</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433621</v>
+        <v>779.4200768843671</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998319</v>
+        <v>558.6274977408369</v>
       </c>
     </row>
     <row r="20">
@@ -5735,13 +5735,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5759,19 +5759,19 @@
         <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2782.232616025902</v>
+        <v>2373.979363934263</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
@@ -5783,13 +5783,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5832,10 +5832,10 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U22" t="n">
         <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783404</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413798</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433622</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998321</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="23">
@@ -5996,10 +5996,10 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6078,16 +6078,16 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>278.5282561439483</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307876</v>
       </c>
       <c r="E25" t="n">
         <v>95.56103444839442</v>
@@ -6145,13 +6145,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442062</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927021</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6163,7 +6163,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
@@ -6178,19 +6178,19 @@
         <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783402</v>
+        <v>1198.376021052696</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413795</v>
+        <v>908.9588510157355</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433622</v>
+        <v>680.9693001177181</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998321</v>
+        <v>460.176720974188</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551622</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,22 +6224,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.328657580449</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6254,22 +6254,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089888</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.4810578558177</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4810578558177</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6382,13 +6382,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927021</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6400,7 +6400,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q28" t="n">
         <v>1956.343466104703</v>
@@ -6415,19 +6415,19 @@
         <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1453.060509258583</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1198.376021052696</v>
+        <v>909.2731541783398</v>
       </c>
       <c r="W28" t="n">
-        <v>1039.911652727605</v>
+        <v>909.2731541783398</v>
       </c>
       <c r="X28" t="n">
-        <v>811.9221018295875</v>
+        <v>681.2836032803225</v>
       </c>
       <c r="Y28" t="n">
-        <v>591.1295226860574</v>
+        <v>460.4910241367924</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6467,40 +6467,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6540,22 +6540,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
         <v>2436.460902902952</v>
@@ -6564,16 +6564,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839439</v>
+        <v>506.8321102045708</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839437</v>
+        <v>506.8321102045708</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839437</v>
+        <v>506.8321102045708</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8321102045708</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>359.9421627066604</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>688.4805750348105</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M32" t="n">
-        <v>1923.729615463053</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N32" t="n">
-        <v>2903.481887689699</v>
+        <v>2749.9835782646</v>
       </c>
       <c r="O32" t="n">
-        <v>3692.333950986038</v>
+        <v>3629.948228594054</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432984</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.472828938312</v>
+        <v>472.4728289383121</v>
       </c>
       <c r="C34" t="n">
-        <v>472.472828938312</v>
+        <v>472.4728289383121</v>
       </c>
       <c r="D34" t="n">
-        <v>351.0393542015688</v>
+        <v>351.0393542015689</v>
       </c>
       <c r="E34" t="n">
-        <v>231.8094252947682</v>
+        <v>351.0393542015689</v>
       </c>
       <c r="F34" t="n">
-        <v>113.6026424724504</v>
+        <v>351.0393542015689</v>
       </c>
       <c r="G34" t="n">
-        <v>113.6026424724504</v>
+        <v>281.7375690610062</v>
       </c>
       <c r="H34" t="n">
-        <v>113.6026424724504</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6895,13 +6895,13 @@
         <v>1277.587935144689</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.853929783321</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X34" t="n">
-        <v>817.5475435608967</v>
+        <v>817.5475435608968</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.4381290929591</v>
+        <v>625.4381290929592</v>
       </c>
     </row>
     <row r="35">
@@ -6914,67 +6914,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563072</v>
+        <v>666.4259024757223</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1530.944718129077</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483405</v>
+        <v>2064.476622801002</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542187</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232733</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679679</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7032,22 +7032,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.6201215051915</v>
+        <v>472.4728289383126</v>
       </c>
       <c r="C37" t="n">
-        <v>454.431220914256</v>
+        <v>332.2198106859983</v>
       </c>
       <c r="D37" t="n">
-        <v>332.9977461775128</v>
+        <v>332.2198106859983</v>
       </c>
       <c r="E37" t="n">
-        <v>213.7678172707122</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839444</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839444</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K37" t="n">
-        <v>400.8955892413027</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883471</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M37" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N37" t="n">
         <v>1487.357919090857</v>
@@ -7117,28 +7117,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R37" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S37" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T37" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U37" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W37" t="n">
-        <v>1078.001222350201</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X37" t="n">
-        <v>878.6948361277762</v>
+        <v>817.5475435608973</v>
       </c>
       <c r="Y37" t="n">
-        <v>686.5854216598385</v>
+        <v>625.4381290929597</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.557933208927</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277728</v>
@@ -7178,46 +7178,46 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.85891762269</v>
+        <v>1784.466183544592</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294614</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353396</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232733</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G39" t="n">
         <v>205.070220408989</v>
@@ -7248,16 +7248,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7266,34 +7266,34 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y39" t="n">
         <v>1138.808109517387</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.6201215051913</v>
+        <v>472.4728289383119</v>
       </c>
       <c r="C40" t="n">
-        <v>393.3671032528769</v>
+        <v>356.0141811348261</v>
       </c>
       <c r="D40" t="n">
-        <v>332.9977461775128</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="E40" t="n">
-        <v>213.7678172707122</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839444</v>
+        <v>234.5807063980829</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K40" t="n">
-        <v>400.8955892413028</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5677573883471</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M40" t="n">
         <v>1117.837172686444</v>
@@ -7351,31 +7351,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q40" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R40" t="n">
-        <v>2181.242423693089</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S40" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U40" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V40" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W40" t="n">
-        <v>1078.001222350201</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X40" t="n">
-        <v>878.6948361277759</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y40" t="n">
-        <v>686.5854216598384</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.070220408989</v>
@@ -7485,16 +7485,16 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7506,22 +7506,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>472.4728289383121</v>
+        <v>472.4728289383115</v>
       </c>
       <c r="C43" t="n">
-        <v>472.4728289383121</v>
+        <v>332.2198106859971</v>
       </c>
       <c r="D43" t="n">
-        <v>351.0393542015689</v>
+        <v>210.7863359492541</v>
       </c>
       <c r="E43" t="n">
-        <v>351.0393542015689</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>351.0393542015689</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>281.7375690610062</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>164.2035469544565</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K43" t="n">
-        <v>400.8955892413029</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5677573883472</v>
+        <v>745.567757388347</v>
       </c>
       <c r="M43" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N43" t="n">
         <v>1487.357919090857</v>
@@ -7585,7 +7585,7 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P43" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q43" t="n">
         <v>2181.242423693089</v>
@@ -7597,22 +7597,22 @@
         <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.008960873748</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U43" t="n">
-        <v>1503.589258674984</v>
+        <v>1503.589258674983</v>
       </c>
       <c r="V43" t="n">
         <v>1277.587935144689</v>
       </c>
       <c r="W43" t="n">
-        <v>1016.853929783322</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X43" t="n">
-        <v>817.5475435608968</v>
+        <v>817.5475435608962</v>
       </c>
       <c r="Y43" t="n">
-        <v>625.4381290929592</v>
+        <v>625.4381290929587</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,25 +7646,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4270.801548335825</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7673,25 +7673,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
         <v>205.0702204089889</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7743,22 +7743,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.6201215051912</v>
+        <v>472.4728289383119</v>
       </c>
       <c r="C46" t="n">
-        <v>454.431220914256</v>
+        <v>472.4728289383119</v>
       </c>
       <c r="D46" t="n">
-        <v>332.9977461775128</v>
+        <v>472.4728289383119</v>
       </c>
       <c r="E46" t="n">
-        <v>213.7678172707122</v>
+        <v>353.2429000315114</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>235.0361172091936</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>235.0361172091936</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7807,16 +7807,16 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K46" t="n">
-        <v>400.8955892413029</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5677573883473</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M46" t="n">
         <v>1117.837172686445</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O46" t="n">
         <v>1814.799887709819</v>
@@ -7825,31 +7825,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2181.242423693089</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S46" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W46" t="n">
-        <v>1078.001222350201</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X46" t="n">
-        <v>878.6948361277758</v>
+        <v>817.5475435608968</v>
       </c>
       <c r="Y46" t="n">
-        <v>686.5854216598383</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627885</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476847</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>34.13957882094024</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>103.7862464855152</v>
+        <v>176.2173930448433</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>189.7998007892656</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9407,22 +9407,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>37.13651117804591</v>
       </c>
       <c r="N20" t="n">
-        <v>246.4545694808461</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476844</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,25 +9872,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>128.7323010770078</v>
       </c>
       <c r="N26" t="n">
-        <v>189.7998007892655</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10115,25 +10115,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>288.7672650676785</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>238.2160185885842</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,22 +10583,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>48.65289230147067</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476862</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,19 +10826,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476856</v>
+        <v>229.1543674071832</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400264</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>136.2499899971299</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>10.31347632938859</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>16.14213605696699</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270142</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270141</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>193.9090818731529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.074288727014</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>70.6633565680081</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.074288727014</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>132.5432342665988</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>134.4135845072636</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>129.6432736947504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0.6409116931831136</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>16.14213605696688</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>137.6294752301916</v>
+        <v>69.02070794103447</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>50.094895437186</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>60.45347648476559</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.1041230279889191</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121071</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>23.5564267443402</v>
       </c>
       <c r="D40" t="n">
-        <v>60.45347648476552</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.5358196412107</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177325</v>
+        <v>3.964581131881431</v>
       </c>
       <c r="F43" t="n">
         <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>69.02070794103447</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>60.45347648476542</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854841</v>
+        <v>46.23443733329441</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121069</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176762</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.725617676</v>
       </c>
       <c r="E2" t="n">
-        <v>774309.4844296175</v>
+        <v>774309.4844296172</v>
       </c>
       <c r="F2" t="n">
         <v>774309.4844296171</v>
       </c>
       <c r="G2" t="n">
+        <v>774309.4844296169</v>
+      </c>
+      <c r="H2" t="n">
         <v>774309.4844296172</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>774309.4844296169</v>
-      </c>
-      <c r="I2" t="n">
-        <v>774309.4844296173</v>
       </c>
       <c r="J2" t="n">
         <v>774309.4844296171</v>
       </c>
       <c r="K2" t="n">
-        <v>774309.4844296171</v>
+        <v>774309.4844296168</v>
       </c>
       <c r="L2" t="n">
-        <v>790151.0807671058</v>
+        <v>790151.080767106</v>
       </c>
       <c r="M2" t="n">
-        <v>790151.0807671065</v>
+        <v>790151.0807671057</v>
       </c>
       <c r="N2" t="n">
-        <v>790151.080767106</v>
+        <v>790151.0807671059</v>
       </c>
       <c r="O2" t="n">
+        <v>790151.0807671061</v>
+      </c>
+      <c r="P2" t="n">
         <v>790151.0807671057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>790151.0807671058</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934063</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306948</v>
+        <v>22717.06642306931</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26418,40 +26418,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918994</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.49231918996</v>
+      </c>
+      <c r="H4" t="n">
         <v>18148.49231918991</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918995</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>18148.49231918993</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918995</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918995</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
         <v>27492.3010319063</v>
       </c>
       <c r="M4" t="n">
-        <v>27492.30103190623</v>
+        <v>27492.3010319063</v>
       </c>
       <c r="N4" t="n">
-        <v>27492.30103190626</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="O4" t="n">
         <v>27492.30103190631</v>
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26494,19 +26494,19 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>98770.76957511491</v>
       </c>
       <c r="M5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="N5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="O5" t="n">
-        <v>98770.76957511494</v>
+        <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
         <v>98770.76957511491</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55659.91851740581</v>
+        <v>-55659.91851740557</v>
       </c>
       <c r="C6" t="n">
-        <v>534307.9606971391</v>
+        <v>534307.9606971389</v>
       </c>
       <c r="D6" t="n">
-        <v>534307.9606971391</v>
+        <v>534307.9606971387</v>
       </c>
       <c r="E6" t="n">
-        <v>-67599.94013669237</v>
+        <v>-67667.1356269189</v>
       </c>
       <c r="F6" t="n">
-        <v>659777.4738567135</v>
+        <v>659710.2783664877</v>
       </c>
       <c r="G6" t="n">
-        <v>659777.4738567136</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="H6" t="n">
-        <v>659777.4738567134</v>
+        <v>659710.2783664878</v>
       </c>
       <c r="I6" t="n">
-        <v>659777.4738567137</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="J6" t="n">
-        <v>483354.2546641206</v>
+        <v>483287.0591738948</v>
       </c>
       <c r="K6" t="n">
-        <v>659777.4738567135</v>
+        <v>659710.2783664874</v>
       </c>
       <c r="L6" t="n">
-        <v>641170.9437370151</v>
+        <v>641144.3677245781</v>
       </c>
       <c r="M6" t="n">
-        <v>534245.6953211405</v>
+        <v>534219.1193087023</v>
       </c>
       <c r="N6" t="n">
-        <v>663888.0101600848</v>
+        <v>663861.4341476475</v>
       </c>
       <c r="O6" t="n">
-        <v>663888.0101600843</v>
+        <v>663861.4341476476</v>
       </c>
       <c r="P6" t="n">
-        <v>663888.0101600846</v>
+        <v>663861.434147647</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>28.39633302883664</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170868</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762113</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,22 +26984,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>248.5720327015318</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>20.4813889089676</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>43.85831389017005</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>56.25950038248513</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>337.0092003950824</v>
+        <v>244.9000501058449</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>120.5017245654296</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,16 +27828,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>272.4729725277057</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>32.06708939393769</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>10.98247917251439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060685</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>1.885271837007167</v>
       </c>
     </row>
     <row r="11">
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-5.12445104261824e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-7.540296344202581e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883664</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,7 +31282,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31291,34 +31291,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,40 +31355,40 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
@@ -31397,7 +31397,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32318,7 +32318,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138801</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
         <v>593.9283018233474</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
@@ -32561,7 +32561,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970249</v>
@@ -32795,7 +32795,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N24" t="n">
         <v>609.6478166837924</v>
@@ -33029,7 +33029,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M27" t="n">
         <v>593.9283018233474</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,7 +33506,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837925</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343414</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307151</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400166</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>432.9015650403121</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35580,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>559.3763608778471</v>
+        <v>631.8075074371754</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.3942385378936</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>526.991087344666</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
         <v>451.7942679013291</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
         <v>78.39423853789363</v>
@@ -36127,22 +36127,22 @@
         <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>576.0576270082724</v>
       </c>
       <c r="N20" t="n">
-        <v>798.7564048937573</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
@@ -36209,7 +36209,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525805</v>
@@ -36364,13 +36364,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>883.6236994779102</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359034</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908542</v>
@@ -36443,7 +36443,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N24" t="n">
         <v>478.3061046004591</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q25" t="n">
         <v>78.39423853789363</v>
@@ -36592,25 +36592,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>667.6534169072344</v>
       </c>
       <c r="N26" t="n">
-        <v>742.1016362021768</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037194</v>
@@ -36677,7 +36677,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M27" t="n">
         <v>451.7942679013291</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N28" t="n">
-        <v>344.8569461675401</v>
+        <v>344.85694616754</v>
       </c>
       <c r="O28" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q28" t="n">
         <v>78.39423853789363</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37081,16 +37081,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>796.8202659558976</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>636.978004807956</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004592</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265651</v>
+        <v>385.8441788568712</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359052</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L37" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M37" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O37" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q37" t="n">
         <v>106.7905715667303</v>
@@ -37546,19 +37546,19 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400175</v>
+        <v>684.7444817995151</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>463.1092954636241</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
@@ -37710,7 +37710,7 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O40" t="n">
         <v>330.7494632514764</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282456</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190286</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
-        <v>348.1537051990348</v>
+        <v>348.1537051990347</v>
       </c>
       <c r="M43" t="n">
-        <v>376.0297124223205</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N43" t="n">
         <v>373.2532791963767</v>
@@ -37953,7 +37953,7 @@
         <v>330.7494632514764</v>
       </c>
       <c r="P43" t="n">
-        <v>263.3534041739471</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q43" t="n">
         <v>106.7905715667303</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>387.0442948008494</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190286</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K46" t="n">
         <v>234.4439925731562</v>
